--- a/data/trans_camb/P32-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P32-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.119724129326318</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.341291233485304</v>
+        <v>8.341291233485302</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.2153010270753073</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.14788694602397</v>
+        <v>2.129193913293574</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2320231674444719</v>
+        <v>0.4203920027494771</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.297662850605523</v>
+        <v>3.755544848489226</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.10736058433128</v>
+        <v>-3.141819765923778</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.755234269199252</v>
+        <v>-3.973729963354796</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.79338840951732</v>
+        <v>-1.633002379573668</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.377693729282482</v>
+        <v>1.333781316163813</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.01933379368906775</v>
+        <v>-0.001152651367445217</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.71750438304622</v>
+        <v>2.387728183251369</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.470399271542705</v>
+        <v>8.264675502155633</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.007815014023833</v>
+        <v>6.042308317209889</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.34931180416598</v>
+        <v>15.0262469798811</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.299890754151687</v>
+        <v>3.520217420942886</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.395907588897196</v>
+        <v>2.424638099532926</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.93411179150286</v>
+        <v>7.252390500071064</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.049566575110247</v>
+        <v>6.034373115300136</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.048722496022051</v>
+        <v>4.159691361421138</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.46932342352074</v>
+        <v>10.59860160862585</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.4337144665146595</v>
+        <v>0.3207035739900748</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.004634555380102343</v>
+        <v>-0.02498804517489297</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6732279295112541</v>
+        <v>0.7301019799689358</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7802933225584781</v>
+        <v>-0.7917235305922194</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.753365950128268</v>
+        <v>-0.8117494082401145</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6438513671783233</v>
+        <v>-0.5816112849087365</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2494893051304418</v>
+        <v>0.2948226252163199</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03920635341733426</v>
+        <v>-0.05327746724288175</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5638679425496234</v>
+        <v>0.4961840502226142</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>5.297990970165353</v>
+        <v>4.47626385955207</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.542340097179019</v>
+        <v>3.419849730549556</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>6.906208013779033</v>
+        <v>7.442656836322354</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.262480934346058</v>
+        <v>4.261671675667263</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.10225108446953</v>
+        <v>2.540299278019856</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>8.889584018503731</v>
+        <v>8.479551977330498</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.331620802696804</v>
+        <v>3.454853466329673</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.349314676498905</v>
+        <v>2.433344950966776</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4.821443497107069</v>
+        <v>5.157651191331492</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5725474951834515</v>
+        <v>0.5355782075222066</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.170684161228233</v>
+        <v>-0.0524647611443308</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1796567302761699</v>
+        <v>0.06087229230390809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.430225862200835</v>
+        <v>-3.327467997021442</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.388979705579751</v>
+        <v>-2.266495574473137</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.621909955262226</v>
+        <v>-3.598340297113865</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.07698828532534698</v>
+        <v>-0.1000437116727842</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.2323182769453024</v>
+        <v>-0.1911484847415172</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.338292785558435</v>
+        <v>-0.4714498076104794</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.307578624094434</v>
+        <v>5.160594006458173</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.333839798750345</v>
+        <v>4.196150843178959</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.876213587201988</v>
+        <v>4.911167482513864</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.327615824990935</v>
+        <v>1.461819795344139</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.082394290996147</v>
+        <v>2.971983502783359</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.928806605442327</v>
+        <v>1.021997314204577</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.300132848960531</v>
+        <v>3.263061411328144</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.096815682640861</v>
+        <v>2.904335175652522</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.089914627405265</v>
+        <v>2.982039807143556</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.5711014824828795</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4979781716373289</v>
+        <v>0.4979781716373286</v>
       </c>
     </row>
     <row r="14">
@@ -994,29 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.0920944360418853</v>
+        <v>0.1340089056329386</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1134456348652174</v>
+        <v>-0.03611005874061581</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.02522244081850506</v>
+        <v>0.001838270579411682</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8760426290568708</v>
+        <v>-0.8260976083182378</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6353079154596216</v>
-      </c>
-      <c r="H14" s="6" t="inlineStr"/>
+        <v>-0.6460641733092557</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.8905430641459559</v>
+      </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04932027868318006</v>
+        <v>-0.03929834533694324</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.06915259354781103</v>
+        <v>-0.09977918353364516</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1310233111467843</v>
+        <v>-0.1886172562009866</v>
       </c>
     </row>
     <row r="15">
@@ -1027,29 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.907397670617049</v>
+        <v>3.322887057185595</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.299000480662301</v>
+        <v>2.81016410612047</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.920715455893168</v>
+        <v>3.010635598534774</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.877072839792892</v>
+        <v>1.915482579054319</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.893459253060904</v>
-      </c>
-      <c r="H15" s="6" t="inlineStr"/>
+        <v>3.014966202418538</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.253612649425614</v>
+      </c>
       <c r="I15" s="6" t="n">
-        <v>1.880924382603139</v>
+        <v>1.904486400026972</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.915311352618395</v>
+        <v>1.706094820184357</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.723319120311579</v>
+        <v>1.649816719489236</v>
       </c>
     </row>
     <row r="16">
@@ -1079,7 +1083,7 @@
         <v>3.358571470090589</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.764301038792048</v>
+        <v>3.764301038792047</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.1442366518862</v>
@@ -1099,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.01484643876971627</v>
+        <v>0.2067343384636114</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7330414039517462</v>
+        <v>-0.3476427420214594</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.91021837117176</v>
+        <v>-0.7885443950264246</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3940669128473342</v>
+        <v>0.3703824140518717</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.429822604619527</v>
+        <v>1.361583884039192</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.33957428134867</v>
+        <v>1.419038578064495</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5684034127440543</v>
+        <v>0.4033191437119354</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.633233656356458</v>
+        <v>0.6263011105104163</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3495788143701319</v>
+        <v>0.5869592987357738</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.911085197625515</v>
+        <v>4.831534479091096</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.300516098376742</v>
+        <v>4.779564668133943</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.741060751194376</v>
+        <v>3.794237120095353</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.14619267940926</v>
+        <v>4.264516533690898</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.053164728034814</v>
+        <v>6.074437068420992</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.604544945181481</v>
+        <v>7.747054068951022</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.987981056203228</v>
+        <v>3.766977020577019</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.461216777045505</v>
+        <v>4.195989490864843</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.048554514656663</v>
+        <v>4.327073190007804</v>
       </c>
     </row>
     <row r="19">
@@ -1204,25 +1208,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05958328067423668</v>
+        <v>-0.0116559234637518</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2202672440190684</v>
+        <v>-0.1213815457624397</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2794774928591903</v>
+        <v>-0.2405605925949236</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>0.1478393558858107</v>
+        <v>0.1152838216172068</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.177460609228339</v>
+        <v>0.2239909454163203</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.06330024960768313</v>
+        <v>0.09704560458086538</v>
       </c>
     </row>
     <row r="21">
@@ -1233,25 +1237,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.466565350758442</v>
+        <v>2.313835630012798</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.072774664595033</v>
+        <v>2.532926356011983</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.854069995615389</v>
+        <v>1.883090575720051</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>2.772577608793812</v>
+        <v>2.729869276196529</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.063619245010152</v>
+        <v>3.188950058815406</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.631193734657166</v>
+        <v>2.740046120767321</v>
       </c>
     </row>
     <row r="22">
@@ -1281,7 +1285,7 @@
         <v>4.063679145156063</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.59581041955631</v>
+        <v>3.595810419556311</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>5.102596216125836</v>
@@ -1301,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.351703205880876</v>
+        <v>3.307774987009706</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8797583995450701</v>
+        <v>0.4859876196543708</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.19794639125792</v>
+        <v>2.510986020875368</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.414295918690617</v>
+        <v>-1.078386120267181</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7771174597028769</v>
+        <v>0.4288423951818398</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3888373454374484</v>
+        <v>0.5135257952690309</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.572232029616683</v>
+        <v>2.159505765277228</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.37059898427596</v>
+        <v>1.527364836151464</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.524561705760327</v>
+        <v>2.599882578255455</v>
       </c>
     </row>
     <row r="24">
@@ -1336,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.74007061709461</v>
+        <v>11.46518653437292</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.370953078974335</v>
+        <v>7.304909140055985</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.277252956141648</v>
+        <v>9.768027585440302</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.066649386652803</v>
+        <v>5.31246336939744</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.993423436840126</v>
+        <v>8.03366939779186</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.7754013711823</v>
+        <v>6.901668852863499</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.365028052404561</v>
+        <v>8.179007128555641</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.296478108721357</v>
+        <v>6.476638785318804</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.648532542790616</v>
+        <v>7.687299062443468</v>
       </c>
     </row>
     <row r="25">
@@ -1386,7 +1390,7 @@
         <v>4.726031827942737</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>4.181903610753356</v>
+        <v>4.181903610753357</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>2.973283024594437</v>
@@ -1395,7 +1399,7 @@
         <v>2.224270474197314</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>2.93746074302248</v>
+        <v>2.937460743022481</v>
       </c>
     </row>
     <row r="26">
@@ -1406,25 +1410,25 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.7246060937598271</v>
+        <v>0.6428636818740691</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.059273181838067</v>
+        <v>-0.0850769455127614</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3812311318934134</v>
+        <v>0.4527263854590455</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>0.6743254508245236</v>
+        <v>0.5813022956510656</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2054678665097287</v>
+        <v>0.3840833198973965</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6133267614010461</v>
+        <v>0.6145482037256138</v>
       </c>
     </row>
     <row r="27">
@@ -1435,25 +1439,25 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13.14661604712108</v>
+        <v>12.65889268474384</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7.749145718773542</v>
+        <v>8.325961017482692</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10.82104175395713</v>
+        <v>11.29925013831282</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>9.97399236511624</v>
+        <v>11.30553961175241</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>8.280460938111105</v>
+        <v>8.781232726388309</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>10.05251265091215</v>
+        <v>9.829215019532908</v>
       </c>
     </row>
     <row r="28">
@@ -1483,7 +1487,7 @@
         <v>1.879353083347539</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.082197048628916</v>
+        <v>2.082197048628915</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.943466871617412</v>
@@ -1503,31 +1507,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.852898472725499</v>
+        <v>2.674903530150528</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.363316794400242</v>
+        <v>1.307293835534745</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.300404553913255</v>
+        <v>2.305328275882827</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.47513925421625</v>
+        <v>-0.445956035638804</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5652220477437847</v>
+        <v>0.6221338542049871</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.5917052391442834</v>
+        <v>0.6531542028357986</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.940297580134528</v>
+        <v>1.975142548782313</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.376484608151277</v>
+        <v>1.330993220164251</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.032712320523201</v>
+        <v>2.01719631793334</v>
       </c>
     </row>
     <row r="30">
@@ -1538,31 +1542,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.563341302419406</v>
+        <v>5.510775347686871</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.904603952659308</v>
+        <v>3.871720884377992</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.376141316099103</v>
+        <v>5.442952456866591</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.044428852629378</v>
+        <v>2.055051670993306</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.181900043857248</v>
+        <v>3.318355028074755</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.696825441441967</v>
+        <v>3.860980152112644</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.933764323936464</v>
+        <v>4.031474708010052</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.231088499364788</v>
+        <v>3.359794992667215</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.295759595056678</v>
+        <v>4.324477797812843</v>
       </c>
     </row>
     <row r="31">
@@ -1588,7 +1592,7 @@
         <v>1.345272520537674</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1.490471639781342</v>
+        <v>1.490471639781341</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.301653181769822</v>
@@ -1608,31 +1612,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.8157171996643758</v>
+        <v>0.8511724424908093</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.409455294887461</v>
+        <v>0.3973053138722955</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7085394994374725</v>
+        <v>0.6867414870326584</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2814802582807562</v>
+        <v>-0.2831405486249388</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2031816465763508</v>
+        <v>0.244673033730837</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2239956814763505</v>
+        <v>0.266331884592596</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7176591622149676</v>
+        <v>0.7382855665421193</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.5146245643356645</v>
+        <v>0.4824963361118981</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.7360423464155952</v>
+        <v>0.741960257623032</v>
       </c>
     </row>
     <row r="33">
@@ -1643,31 +1647,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.606740898824742</v>
+        <v>2.658689854788369</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.843180598769768</v>
+        <v>1.770234096673939</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.480815191087275</v>
+        <v>2.433102622622975</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.387426811250768</v>
+        <v>2.443735863638292</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>3.751164677439436</v>
+        <v>4.660866142662535</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>4.434499140899053</v>
+        <v>5.498666075962561</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.161881557325096</v>
+        <v>2.216751183951733</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.763073587143495</v>
+        <v>1.812434897952215</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.335602056885892</v>
+        <v>2.309130804012971</v>
       </c>
     </row>
     <row r="34">
